--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2806573.477519941</v>
+        <v>2824948.166986061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>194.9232569758564</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>346.6999128968763</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.01892853764461</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>285.9413819376378</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>79.97683457340021</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>216.6993815150877</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>116.8083228660702</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>195.9071209716647</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>66.9789447792819</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>234.487181379049</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385018</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>25.58923446922638</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>189.9664086064136</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,10 +1658,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>49.12791688416453</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>17.85500287309088</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>44.74370058857917</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>103.4286568439259</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>166.5670961475976</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>76.2797837049402</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,10 +2618,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.490676875340919</v>
+        <v>55.21417618748909</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>200.1729525594772</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>104.435614114766</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>10.00886850234444</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94578546115032</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>119.9743959987155</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>128.1454676862541</v>
+        <v>90.50695550500819</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>140.9844762631802</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>52.09082459045901</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>136.6806167534098</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.489050745291</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2445.228222785224</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2055.088890809413</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0636002298164</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0636002298164</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>366.9469608174807</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>219.0338672350875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>72.14391973717719</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>72.14391973717719</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>72.14391973717719</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696253</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696253</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="E5" t="n">
-        <v>478.852290671381</v>
+        <v>907.2245413397691</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>496.2386365501615</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1623.742392185849</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
         <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2524.132196633494</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2524.132196633494</v>
+        <v>2444.234420769256</v>
       </c>
       <c r="V8" t="n">
-        <v>2524.132196633494</v>
+        <v>2444.234420769256</v>
       </c>
       <c r="W8" t="n">
-        <v>2171.363541363379</v>
+        <v>2091.465765499142</v>
       </c>
       <c r="X8" t="n">
-        <v>2171.363541363379</v>
+        <v>1718.000007238062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1781.224209387568</v>
+        <v>1327.86067526225</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>491.2732454397182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>491.2732454397182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155878</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,7 +5063,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5124,13 +5124,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="X13" t="n">
-        <v>762.9293510964552</v>
+        <v>1361.993455534651</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.1367719529251</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="14">
@@ -5279,10 +5279,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870658</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5598,16 +5598,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>712.8170085027681</v>
+        <v>265.3690873100871</v>
       </c>
       <c r="C19" t="n">
-        <v>712.8170085027681</v>
+        <v>265.3690873100871</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>115.2524478977514</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>115.2524478977514</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>940.8065594007854</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>940.8065594007854</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X19" t="n">
-        <v>712.8170085027681</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.8170085027681</v>
+        <v>447.0175521403269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602865</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.8019868198124</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="C22" t="n">
-        <v>369.8658038919056</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4692.604980946013</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>4692.604980946013</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>4692.604980946013</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>4437.920492740126</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500522</v>
+        <v>4148.503322703165</v>
       </c>
       <c r="X22" t="n">
-        <v>720.4504516500522</v>
+        <v>3920.513771805148</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.4504516500522</v>
+        <v>3920.513771805148</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>3686.322319899659</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>3686.322319899659</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3536.205680487323</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3536.205680487323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3536.205680487323</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3536.205680487323</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.685527502827</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>4606.170084808407</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>4316.752914771446</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>4088.763363873429</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>3867.970784729899</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6269,7 +6269,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>3446.276123502709</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>3899.235428472201</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705748</v>
+        <v>4184.086356507269</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705748</v>
+        <v>4184.086356507269</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705748</v>
+        <v>4184.086356507269</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705748</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705748</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903953</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383385</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688069</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799361</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557901</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347407</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347407</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347407</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104466</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="X28" t="n">
-        <v>757.7241344124292</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="Y28" t="n">
-        <v>536.9315552688989</v>
+        <v>4239.858251646147</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,7 +6497,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.1954542207687</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1954542207687</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6649,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1072.935953772179</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="X31" t="n">
-        <v>560.1954542207687</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.1954542207687</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,25 +6686,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>367.4730644165942</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>614.2381923230582</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>921.5583256030199</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6932,7 +6932,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,25 +6959,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3941.006808105545</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="C37" t="n">
-        <v>3772.070625177638</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="D37" t="n">
-        <v>3717.579932792637</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E37" t="n">
-        <v>3717.579932792637</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>4404.807795781064</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>4150.123307575177</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977332</v>
+        <v>4150.123307575177</v>
       </c>
       <c r="X37" t="n">
-        <v>4343.447852079315</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="Y37" t="n">
-        <v>4122.655272935785</v>
+        <v>3922.133756677159</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7169,55 +7169,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,22 +7257,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>825.3747459653033</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3747459653033</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1369.476404208151</v>
+        <v>1072.634584732458</v>
       </c>
       <c r="V40" t="n">
-        <v>1114.791916002264</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="W40" t="n">
-        <v>825.3747459653033</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="X40" t="n">
-        <v>825.3747459653033</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y40" t="n">
-        <v>825.3747459653033</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7406,55 +7406,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>3180.298338402368</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3948.66648479483</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>4278.529112458863</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4558.06917767756</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.09165845977</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>501.5782531723953</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>501.5782531723953</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>501.5782531723953</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1246.379265937637</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>957.2506271511957</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>957.2506271511957</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W43" t="n">
-        <v>667.8334571142351</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8334571142351</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.040877970705</v>
+        <v>670.5144361003022</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>493.702859380097</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>493.702859380097</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>346.8129118821867</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>346.8129118821867</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>643.8194987924328</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>124.3400780863222</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>113.602692129454</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>80.50021372615242</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>165.9802687929761</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>286.5092576192328</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720735</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,16 +23470,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>260.648117929351</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>35.7432467826236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>176.5817385048726</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>127.5660451498404</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.3939427352488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>45.18681617428645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>31.35371383600562</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>72.63404466259593</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,7 +24418,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.3413033065965</v>
+        <v>124.6178039944482</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,22 +24889,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>86.0643998391001</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>121.2740412742711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>276.2284838962329</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>94.66968755706203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>166.2629563998619</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>158.0918847123233</v>
+        <v>195.7303968935692</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>4.436571759751075</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>169.4567364679302</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12.23321161412633</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,16 +26080,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.4955803343</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="I2" t="n">
-        <v>625646.4955803336</v>
+        <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="L2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803346</v>
       </c>
       <c r="N2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803339</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029926</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029918</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193012.6398717959</v>
+        <v>-190484.3187083538</v>
       </c>
       <c r="C6" t="n">
-        <v>396955.2393427488</v>
+        <v>399483.560506191</v>
       </c>
       <c r="D6" t="n">
-        <v>396955.2393427489</v>
+        <v>399483.5605061908</v>
       </c>
       <c r="E6" t="n">
-        <v>-22839.23163557771</v>
+        <v>-20804.41239758104</v>
       </c>
       <c r="F6" t="n">
-        <v>502320.8048413186</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="G6" t="n">
-        <v>502320.8048413184</v>
+        <v>504355.6240793151</v>
       </c>
       <c r="H6" t="n">
-        <v>502320.8048413184</v>
+        <v>504355.6240793155</v>
       </c>
       <c r="I6" t="n">
-        <v>502320.8048413178</v>
+        <v>504355.6240793151</v>
       </c>
       <c r="J6" t="n">
-        <v>325897.5856487256</v>
+        <v>327932.4048867223</v>
       </c>
       <c r="K6" t="n">
-        <v>502320.8048413181</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="L6" t="n">
-        <v>502320.8048413184</v>
+        <v>504355.624079315</v>
       </c>
       <c r="M6" t="n">
-        <v>367519.7896074812</v>
+        <v>369554.6088454783</v>
       </c>
       <c r="N6" t="n">
-        <v>502320.8048413184</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="O6" t="n">
-        <v>502320.8048413181</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="P6" t="n">
-        <v>502320.8048413181</v>
+        <v>504355.624079315</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>174.8078437026126</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39.53802575917729</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>116.9466932546936</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882457</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>127.8427880831572</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>289.7542661050688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>69.82361682150335</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>99.63999749158755</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>55.31704653662464</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>79.45501786728727</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>51.79469286292874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.07213548384105e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35966,10 +35966,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>493.602672550759</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843351</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>231.0756523140917</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>499.1748421909892</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37625,25 +37625,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>415.2379737490004</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>641.3196830252161</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>535.7669625752571</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>495.6240934217708</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2824948.166986061</v>
+        <v>2900477.836650866</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.65867788356588</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.6999128968763</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>155.4526127311943</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>285.9413819376378</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.9016317810209</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.53293573769243</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>182.9517011130388</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>195.9071209716647</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>66.9789447792819</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>60.54139430664144</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1576,16 +1578,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>25.58923446922638</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>32.61172734477782</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>49.12791688416453</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>17.85500287309088</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>166.5670961475976</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.3775845601134</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>76.2797837049402</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>165.3327002607877</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.21417618748909</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>141.2552209831414</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>26.75232477461125</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>200.1729525594772</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>10.00886850234444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>75.59237361796752</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>119.9743959987155</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>136.1203916976713</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>101.3741720030007</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>90.50695550500819</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>140.9844762631802</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>153.0952537370586</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6806167534098</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>98.73661677746401</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4507,25 +4509,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>571.1061430638139</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>571.1061430638139</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.975310878425</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.012793938013</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.012793938013</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>907.2245413397691</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>496.2386365501615</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.575150942547</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>536.6170209242687</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>941.2608351981287</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C8" t="n">
-        <v>941.2608351981287</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2444.234420769256</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2444.234420769256</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2091.465765499142</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.000007238062</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.86067526225</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648867</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C10" t="n">
-        <v>279.3468541648867</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D10" t="n">
-        <v>279.3468541648867</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5020,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155878</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1361.993455534651</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1361.993455534651</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.993455534651</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.993455534651</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.200876391121</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>865.8513795167394</v>
       </c>
       <c r="W16" t="n">
-        <v>496.665036439558</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>447.040877970705</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3690873100871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3690873100871</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>115.2524478977514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>115.2524478977514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>447.0175521403269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.0175521403269</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5740,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602865</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3738.865306974908</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C22" t="n">
-        <v>3738.865306974908</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D22" t="n">
-        <v>3738.865306974908</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>3738.865306974908</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974908</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4692.604980946013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4692.604980946013</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4692.604980946013</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>4437.920492740126</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>4148.503322703165</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X22" t="n">
-        <v>3920.513771805148</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="Y22" t="n">
-        <v>3920.513771805148</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3686.322319899659</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>3686.322319899659</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3536.205680487323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3536.205680487323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3536.205680487323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3536.205680487323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014293</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014293</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808407</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771446</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X25" t="n">
-        <v>4088.763363873429</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>3867.970784729899</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3446.276123502709</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3899.235428472201</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4184.086356507269</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="C28" t="n">
-        <v>4184.086356507269</v>
+        <v>390.0157722697342</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507269</v>
+        <v>239.8991328573984</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>239.8991328573984</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576119</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4460.650830789677</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>4460.650830789677</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>4460.650830789677</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X28" t="n">
-        <v>4460.650830789677</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y28" t="n">
-        <v>4239.858251646147</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6503,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6542,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
@@ -6549,19 +6551,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.461721072713</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
         <v>247.6350999123426</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.893720280517</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1248.108305070023</v>
       </c>
       <c r="U31" t="n">
-        <v>1072.935953772179</v>
+        <v>1248.108305070023</v>
       </c>
       <c r="V31" t="n">
-        <v>818.2514655662918</v>
+        <v>993.4238168641361</v>
       </c>
       <c r="W31" t="n">
-        <v>818.2514655662918</v>
+        <v>993.4238168641361</v>
       </c>
       <c r="X31" t="n">
-        <v>818.2514655662918</v>
+        <v>765.4342659661188</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.4588864227617</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6682,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>367.4730644165942</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>614.2381923230582</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>921.5583256030199</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U34" t="n">
-        <v>1288.886292289268</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.886292289268</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W34" t="n">
-        <v>1288.886292289268</v>
+        <v>4260.44228945471</v>
       </c>
       <c r="X34" t="n">
-        <v>1060.896741391251</v>
+        <v>4260.44228945471</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>4184.086356507268</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,13 +6958,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.046207783208</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3922.133756677159</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C37" t="n">
-        <v>3922.133756677159</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D37" t="n">
-        <v>3922.133756677159</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>3774.220663094766</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596856</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365625</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4404.807795781064</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4150.123307575177</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>4150.123307575177</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>3922.133756677159</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y37" t="n">
-        <v>3922.133756677159</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,67 +7159,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>698.8634468392138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.509052552801</v>
+        <v>4353.022539435175</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>4758.456419475908</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>4534.671004265414</v>
       </c>
       <c r="U40" t="n">
-        <v>1072.634584732458</v>
+        <v>4534.671004265414</v>
       </c>
       <c r="V40" t="n">
-        <v>817.9500965265709</v>
+        <v>4534.671004265414</v>
       </c>
       <c r="W40" t="n">
-        <v>817.9500965265709</v>
+        <v>4534.671004265414</v>
       </c>
       <c r="X40" t="n">
-        <v>817.9500965265709</v>
+        <v>4534.671004265414</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.1575173830407</v>
+        <v>4534.671004265414</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7390,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7448,7 +7450,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3180.298338402368</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3948.66648479483</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4278.529112458863</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4558.06917767756</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4763.09165845977</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>670.5144361003022</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>501.5782531723953</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>501.5782531723953</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>501.5782531723953</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7597,22 +7599,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W43" t="n">
-        <v>898.5039869983195</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X43" t="n">
-        <v>670.5144361003022</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y43" t="n">
-        <v>670.5144361003022</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7725,19 +7727,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
         <v>2123.441607278215</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>643.8194987924328</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>643.8194987924328</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>493.702859380097</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>493.702859380097</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>346.8129118821867</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>346.8129118821867</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293934</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924328</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X46" t="n">
-        <v>643.8194987924328</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y46" t="n">
-        <v>643.8194987924328</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>277.6717966208068</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>286.5092576192343</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>124.3400780863222</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>113.602692129454</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>80.50021372615242</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>165.9802687929762</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>165.9802687929761</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>286.5092576192328</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720735</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>105.9521741567361</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>260.648117929351</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>219.5259159790502</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>176.5817385048726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>127.5660451498404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>31.35371383600562</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.20706879198136</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>72.63404466259593</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>86.80494306304027</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.6178039944482</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.165827039789804</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>171.168485208992</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>86.0643998391001</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>276.2284838962329</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>142.9922797341273</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>166.2629563998619</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>89.58926369136583</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>96.54663798060253</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>195.7303968935692</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>4.436571759751075</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>133.1420986615187</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>12.23321161412633</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>126.9730386115731</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803343</v>
       </c>
       <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.495580334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803346</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803339</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26433,16 +26435,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26454,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083538</v>
+        <v>-190484.3187083534</v>
       </c>
       <c r="C6" t="n">
         <v>399483.560506191</v>
       </c>
       <c r="D6" t="n">
-        <v>399483.5605061908</v>
+        <v>399483.5605061911</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758104</v>
+        <v>-20804.41239758111</v>
       </c>
       <c r="F6" t="n">
+        <v>504355.624079315</v>
+      </c>
+      <c r="G6" t="n">
+        <v>504355.6240793153</v>
+      </c>
+      <c r="H6" t="n">
         <v>504355.6240793152</v>
       </c>
-      <c r="G6" t="n">
-        <v>504355.6240793151</v>
-      </c>
-      <c r="H6" t="n">
-        <v>504355.6240793155</v>
-      </c>
       <c r="I6" t="n">
-        <v>504355.6240793151</v>
+        <v>504355.624079315</v>
       </c>
       <c r="J6" t="n">
         <v>327932.4048867223</v>
       </c>
       <c r="K6" t="n">
-        <v>504355.6240793152</v>
+        <v>504355.6240793155</v>
       </c>
       <c r="L6" t="n">
         <v>504355.624079315</v>
       </c>
       <c r="M6" t="n">
-        <v>369554.6088454783</v>
+        <v>369554.608845478</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.6240793152</v>
+        <v>504355.6240793153</v>
       </c>
       <c r="O6" t="n">
-        <v>504355.6240793152</v>
+        <v>504355.6240793155</v>
       </c>
       <c r="P6" t="n">
         <v>504355.624079315</v>
@@ -26744,34 +26746,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.0751637799147</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.53802575917729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27579,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>56.69292621882457</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>259.1499801833007</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>127.8427880831572</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.3363068750327</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>35.43826180874041</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0517176144024</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>182.3211906579688</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>55.31704653662464</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>79.45501786728727</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>4.973311585527682</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>588.096173671273</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>340.4953046390455</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36200,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>493.602672550759</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686865</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>457.5346514843351</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,22 +36919,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>424.0270691799203</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>231.0756523140917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>499.1748421909892</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>415.2379737490004</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37859,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>535.7669625752571</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>495.6240934217708</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900477.836650866</v>
+        <v>2893460.821759153</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.65867788356588</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>84.67670117615879</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.37301815329025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.9016317810209</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.6638564154455</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.53293573769243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>182.9517011130388</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>70.89253115536424</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>149.8794763036719</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385031</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664144</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>101.2386603312939</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>32.61172734477782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.3775845601134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>165.3327002607877</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>141.2552209831414</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>64.77871132208426</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>26.75232477461125</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>211.2541671901475</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.59237361796752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>136.1203916976713</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>101.3741720030007</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.0952537370586</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>75.98142835561576</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>98.73661677746401</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>550.4609080000314</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>139.4750032104238</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.752638628377</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1834.613306652565</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4509,25 +4509,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>81.59249510651622</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1982.475507338148</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.946621408918</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>550.4609080000318</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>139.4750032104243</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>125.5515991490152</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>125.5515991490152</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>500.1394333084173</v>
       </c>
       <c r="C10" t="n">
-        <v>217.9192350259435</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>217.9192350259435</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>217.9192350259435</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>500.1394333084173</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>500.1394333084173</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324571</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324571</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324571</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324571</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324571</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1396.654997495989</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1396.654997495989</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1396.654997495989</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1396.654997495989</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1396.654997495989</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324571</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5366,19 +5366,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>865.8513795167394</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>576.4342094797788</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>576.4342094797788</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5706,13 +5706,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,16 +5764,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,19 +5840,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>874.6385818722731</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>874.6385818722731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1108.128127811259</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>818.7109577742983</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390.0157722697342</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>390.0157722697342</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>239.8991328573984</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>239.8991328573984</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X28" t="n">
-        <v>792.456816243504</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>571.6642370999739</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1471.893720280517</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1248.108305070023</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1248.108305070023</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V31" t="n">
-        <v>993.4238168641361</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W31" t="n">
-        <v>993.4238168641361</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X31" t="n">
-        <v>765.4342659661188</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,13 +6779,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.85945949167</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4549.85945949167</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4549.85945949167</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>4260.44228945471</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X34" t="n">
-        <v>4260.44228945471</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y34" t="n">
-        <v>4184.086356507268</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W37" t="n">
-        <v>496.665036439558</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4353.022539435175</v>
+        <v>241.980548233671</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507268</v>
+        <v>241.980548233671</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507268</v>
+        <v>241.980548233671</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>241.980548233671</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>241.980548233671</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>241.980548233671</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4758.456419475908</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>4534.671004265414</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4534.671004265414</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>4534.671004265414</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W40" t="n">
-        <v>4534.671004265414</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X40" t="n">
-        <v>4534.671004265414</v>
+        <v>241.980548233671</v>
       </c>
       <c r="Y40" t="n">
-        <v>4534.671004265414</v>
+        <v>241.980548233671</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>809.4940713833126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>554.8095831774258</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>265.3924131404652</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>265.3924131404652</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>1044.311772267568</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>944.5778159266949</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.7852367831648</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>87.16935584025435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503174</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567361</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>8.725692072498902</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>219.5259159790502</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.20706879198136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>86.80494306304027</v>
+        <v>14.4554881988895</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>4.165827039789804</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>160.9309440669529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>171.168485208992</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644355</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>78.54216539558253</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.9922797341273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>89.58926369136583</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.598006161884882</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>96.54663798060253</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>133.1420986615187</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>91.26539274301207</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>126.9730386115731</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="K2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803339</v>
       </c>
       <c r="M2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="N2" t="n">
-        <v>625646.4955803343</v>
-      </c>
       <c r="O2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
         <v>625646.495580334</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26472,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,7 +26496,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083534</v>
+        <v>-190484.3187083535</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.560506191</v>
+        <v>399483.5605061908</v>
       </c>
       <c r="D6" t="n">
-        <v>399483.5605061911</v>
+        <v>399483.5605061907</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758111</v>
+        <v>-21779.00365730247</v>
       </c>
       <c r="F6" t="n">
-        <v>504355.624079315</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="G6" t="n">
-        <v>504355.6240793153</v>
+        <v>503381.0328195933</v>
       </c>
       <c r="H6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195932</v>
       </c>
       <c r="I6" t="n">
-        <v>504355.624079315</v>
+        <v>503381.0328195931</v>
       </c>
       <c r="J6" t="n">
-        <v>327932.4048867223</v>
+        <v>326957.8136270005</v>
       </c>
       <c r="K6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195932</v>
       </c>
       <c r="L6" t="n">
-        <v>504355.624079315</v>
+        <v>503381.0328195932</v>
       </c>
       <c r="M6" t="n">
-        <v>369554.608845478</v>
+        <v>368580.0175857562</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.6240793153</v>
+        <v>503381.0328195934</v>
       </c>
       <c r="O6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195933</v>
       </c>
       <c r="P6" t="n">
-        <v>504355.624079315</v>
+        <v>503381.0328195933</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.0751637799147</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>329.1074688446362</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1499801833007</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y5" t="n">
-        <v>277.3363068750327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.0517176144024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>182.3211906579688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>81.03878508949695</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.36734479495593</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.973311585527682</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642237</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382566</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2893460.821759153</v>
+        <v>2898400.084608186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>307.7676307244759</v>
       </c>
       <c r="G2" t="n">
-        <v>84.67670117615879</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>121.0066975960217</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>59.6638564154455</v>
+        <v>14.4638972269085</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>70.89253115536424</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>241.7627700121625</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>149.8794763036719</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>82.8537440394381</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385031</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.1189185490262</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.2386603312939</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>243.674146253355</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
-        <v>237.6821551249385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>64.77871132208426</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>211.2541671901475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.2898147863548</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>57.93408156253791</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>75.98142835561576</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4315,16 +4315,16 @@
         <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>550.4609080000314</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>139.4750032104238</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2574.920103547494</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4719,10 +4719,10 @@
         <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982761</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>936.2491605982761</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>936.2491605982761</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>550.4609080000318</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>139.4750032104243</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>125.5515991490152</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>125.5515991490152</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982761</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084173</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>331.2032503805102</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>183.2901567981171</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084173</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084173</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,49 +5026,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>877.9199491897558</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>708.9837662618489</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>558.8671268495132</v>
       </c>
       <c r="E13" t="n">
         <v>412.2823606383756</v>
@@ -5190,13 +5190,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1396.654997495989</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1396.654997495989</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1396.654997495989</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1396.654997495989</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1396.654997495989</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>1107.237827459029</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X13" t="n">
-        <v>879.2482765610114</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.2482765610114</v>
+        <v>877.9199491897558</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,13 +5266,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5539,22 +5539,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6180,19 +6180,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6217,34 +6217,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,13 +6484,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514081</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,16 +6779,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>420.3226148324571</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765184</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706316</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>241.980548233671</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,13 +7198,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555221</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>241.980548233671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669951</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>288.4091825776757</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503174</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.315044097542994</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.725692072498902</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>8.463497070473039</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>79.43092547709122</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
-        <v>14.4554881988895</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>160.9309440669529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>75.26883114644355</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.54216539558253</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>5.598006161884882</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>91.26539274301207</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
@@ -26322,40 +26322,40 @@
         <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803336</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.4955803339</v>
-      </c>
       <c r="I2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803336</v>
       </c>
       <c r="N2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,10 +26435,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083535</v>
+        <v>-190484.3187083534</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.5605061908</v>
+        <v>399483.5605061909</v>
       </c>
       <c r="D6" t="n">
         <v>399483.5605061907</v>
       </c>
       <c r="E6" t="n">
-        <v>-21779.00365730247</v>
+        <v>-20901.87152355351</v>
       </c>
       <c r="F6" t="n">
-        <v>503381.0328195936</v>
+        <v>504258.164953343</v>
       </c>
       <c r="G6" t="n">
-        <v>503381.0328195933</v>
+        <v>504258.164953343</v>
       </c>
       <c r="H6" t="n">
-        <v>503381.0328195932</v>
+        <v>504258.1649533429</v>
       </c>
       <c r="I6" t="n">
-        <v>503381.0328195931</v>
+        <v>504258.1649533432</v>
       </c>
       <c r="J6" t="n">
-        <v>326957.8136270005</v>
+        <v>327834.9457607499</v>
       </c>
       <c r="K6" t="n">
-        <v>503381.0328195932</v>
+        <v>504258.164953343</v>
       </c>
       <c r="L6" t="n">
-        <v>503381.0328195932</v>
+        <v>504258.164953343</v>
       </c>
       <c r="M6" t="n">
-        <v>368580.0175857562</v>
+        <v>369457.1497195054</v>
       </c>
       <c r="N6" t="n">
-        <v>503381.0328195934</v>
+        <v>504258.1649533429</v>
       </c>
       <c r="O6" t="n">
-        <v>503381.0328195933</v>
+        <v>504258.164953343</v>
       </c>
       <c r="P6" t="n">
-        <v>503381.0328195933</v>
+        <v>504258.164953343</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>99.10841501723559</v>
       </c>
       <c r="G2" t="n">
-        <v>329.1074688446362</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>53.40901521294985</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634964</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>81.03878508949695</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>85.98948845797236</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>17.36734479495593</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>62.56730398349315</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346388</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8335596281419</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.947628233053</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382566</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
